--- a/public/record/ToCustomer_7423.xlsx
+++ b/public/record/ToCustomer_7423.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -25,7 +25,7 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>Repair HVAC Interior B10210</t>
+    <t>Renovate Bldg 1005</t>
   </si>
   <si>
     <t>DATE</t>
@@ -37,7 +37,7 @@
     <t>CONTRACT NO.</t>
   </si>
   <si>
-    <t>RKMF 17-0133</t>
+    <t>5953</t>
   </si>
   <si>
     <t xml:space="preserve">PROJECT ID </t>
@@ -46,7 +46,7 @@
     <t>TASK ORDER NO.</t>
   </si>
   <si>
-    <t>FA486118FA140</t>
+    <t>FA486119FA230</t>
   </si>
   <si>
     <t xml:space="preserve">DOCUMENTED BY </t>
@@ -71,15 +71,6 @@
   </si>
   <si>
     <t>NO. OF WORKERS</t>
-  </si>
-  <si>
-    <t>5 Star Elevator Service</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Design</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -1364,7 +1355,7 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="16">
-        <v>5733</v>
+        <v>5953</v>
       </c>
       <c r="G3" s="17"/>
       <c r="I3" s="3"/>
@@ -1418,21 +1409,11 @@
       <c r="K6" s="22"/>
     </row>
     <row r="7" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="38">
-        <v>1</v>
-      </c>
-      <c r="D7" s="39">
-        <v>1</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>20</v>
-      </c>
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
@@ -1501,7 +1482,7 @@
     </row>
     <row r="15" ht="24.75" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="48">
@@ -1516,7 +1497,7 @@
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -1528,21 +1509,21 @@
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="55" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="57" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -1577,7 +1558,7 @@
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" s="69"/>
       <c r="C21" s="69"/>
@@ -1589,7 +1570,7 @@
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B22" s="71"/>
       <c r="C22" s="71"/>
